--- a/xlsx/叙利亚_intext.xlsx
+++ b/xlsx/叙利亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="879">
   <si>
     <t>叙利亚</t>
   </si>
@@ -29,7 +29,7 @@
     <t>叙利亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_叙利亚</t>
+    <t>政策_政策_美国_叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E5%9B%BD%E6%88%98%E5%A3%AB</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>一級行政區</t>
+    <t>一级行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A7%86%E6%96%AF%E7%9C%81</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%96%A9%E5%BE%B7%E6%B9%96</t>
   </si>
   <si>
-    <t>阿薩德湖</t>
+    <t>阿萨德湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B5%B7%E5%B2%B8%E7%BA%BF%E9%95%BF%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%B8%9C%E9%83%A8%E6%97%B6%E9%97%B4</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>敘利亞人</t>
+    <t>叙利亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
-    <t>敘利亞基督教</t>
+    <t>叙利亚基督教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
   </si>
   <si>
-    <t>曆法</t>
+    <t>历法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8E%86</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E8%AE%AE%E4%BC%9A_(%E5%8F%99%E5%88%A9%E4%BA%9A)</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E6%80%BB%E7%BB%9F</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E6%80%BB%E7%90%86</t>
@@ -359,19 +359,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%A6%AC%E5%BE%B7%C2%B7%E5%93%88%E7%B1%B3%E6%96%AF</t>
   </si>
   <si>
-    <t>伊馬德·哈米斯</t>
+    <t>伊马德·哈米斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%85%83</t>
   </si>
   <si>
-    <t>國際元</t>
+    <t>国际元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E9%8E%8A</t>
   </si>
   <si>
-    <t>敘利亞鎊</t>
+    <t>叙利亚镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%C2%A3</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.sy</t>
@@ -455,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國武裝部隊列表</t>
+    <t>各国武装部队列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%8C%96</t>
   </si>
   <si>
-    <t>阿拉伯語羅馬化</t>
+    <t>阿拉伯语罗马化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
@@ -707,9 +707,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B9%8B%E6%98%A5</t>
   </si>
   <si>
@@ -719,31 +716,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊斯蘭國</t>
+    <t>伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0%E9%9B%A3%E6%B0%91</t>
   </si>
   <si>
-    <t>敘利亞內戰難民</t>
+    <t>叙利亚内战难民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E9%9B%A3%E6%B0%91%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>歐洲難民危機</t>
+    <t>欧洲难民危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E7%9C%81</t>
   </si>
   <si>
-    <t>哈馬省</t>
+    <t>哈马省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%A1%9E%E5%85%8B%E7%9C%81</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9%E7%9C%81</t>
   </si>
   <si>
-    <t>大馬士革省</t>
+    <t>大马士革省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E9%A2%87%E7%9C%81</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>哈馬</t>
+    <t>哈马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E6%B2%99%E6%BC%A0</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海氣候</t>
+    <t>地中海气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E6%B2%99%E6%BC%A0%E6%B0%94%E5%80%99</t>
@@ -881,9 +878,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A6%AC%E5%A3%AB%E9%9D%A9</t>
   </si>
   <si>
-    <t>大馬士革</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -923,9 +917,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80</t>
   </si>
   <si>
-    <t>官方语言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
   </si>
   <si>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%A1%8C%E7%81%AB%E7%82%AE</t>
@@ -1037,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%AF%9B%E8%85%BF%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>飛毛腿導彈</t>
+    <t>飞毛腿导弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC-23</t>
@@ -1091,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>敘利亞經濟</t>
+    <t>叙利亚经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E8%A1%8C</t>
@@ -1157,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>Template talk-亞洲</t>
+    <t>Template talk-亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
@@ -1193,13 +1184,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -1397,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
+    <t>阿布哈兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
@@ -1445,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
@@ -1463,13 +1454,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
@@ -1487,13 +1478,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -1505,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1517,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -1541,9 +1532,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
@@ -1553,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1571,13 +1559,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -1589,55 +1574,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
   </si>
   <si>
-    <t>阿聯酋</t>
+    <t>阿联酋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1649,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E7%BD%97%E8%92%82%E9%87%8C%E5%92%8C%E6%B3%BD%E5%87%AF%E5%88%A9%E4%BA%9A</t>
@@ -1661,31 +1622,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>台海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -1739,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利古里亞海</t>
+    <t>利古里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
@@ -1853,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
@@ -1865,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
@@ -1913,7 +1874,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>直布羅陀海峽</t>
+    <t>直布罗陀海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1931,13 +1892,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
@@ -1961,13 +1922,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A7%86%E5%9C%B0%E5%8C%BA</t>
@@ -2021,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
@@ -2081,15 +2042,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>泛阿拉伯顏色</t>
+    <t>泛阿拉伯颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
   </si>
   <si>
@@ -2105,25 +2063,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇丹共和國</t>
+    <t>苏丹共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -2141,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -2207,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -2231,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -2249,13 +2207,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2315,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
@@ -2333,9 +2291,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
@@ -2357,9 +2312,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
   </si>
   <si>
@@ -2537,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2597,7 +2549,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
@@ -2669,7 +2621,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2693,13 +2645,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3363,7 +3315,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -6550,7 +6502,7 @@
         <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6576,10 +6528,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6605,10 +6557,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -6634,10 +6586,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6663,10 +6615,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -6692,10 +6644,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6721,10 +6673,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6750,10 +6702,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6779,10 +6731,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -6808,10 +6760,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -6837,10 +6789,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -6866,10 +6818,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6924,10 +6876,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -6953,10 +6905,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F135" t="s">
         <v>255</v>
-      </c>
-      <c r="F135" t="s">
-        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -6982,10 +6934,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="s">
         <v>257</v>
-      </c>
-      <c r="F136" t="s">
-        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7011,10 +6963,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -7040,10 +6992,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7069,10 +7021,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -7098,10 +7050,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>264</v>
+      </c>
+      <c r="F140" t="s">
         <v>265</v>
-      </c>
-      <c r="F140" t="s">
-        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7127,10 +7079,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" t="s">
         <v>267</v>
-      </c>
-      <c r="F141" t="s">
-        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7156,10 +7108,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>268</v>
+      </c>
+      <c r="F142" t="s">
         <v>269</v>
-      </c>
-      <c r="F142" t="s">
-        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7185,10 +7137,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>262</v>
+      </c>
+      <c r="F143" t="s">
         <v>263</v>
-      </c>
-      <c r="F143" t="s">
-        <v>264</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7214,10 +7166,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>254</v>
+      </c>
+      <c r="F144" t="s">
         <v>255</v>
-      </c>
-      <c r="F144" t="s">
-        <v>256</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7243,10 +7195,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" t="s">
         <v>271</v>
-      </c>
-      <c r="F145" t="s">
-        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7272,10 +7224,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>272</v>
+      </c>
+      <c r="F146" t="s">
         <v>273</v>
-      </c>
-      <c r="F146" t="s">
-        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7301,10 +7253,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>274</v>
+      </c>
+      <c r="F147" t="s">
         <v>275</v>
-      </c>
-      <c r="F147" t="s">
-        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7330,10 +7282,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>248</v>
+      </c>
+      <c r="F148" t="s">
         <v>249</v>
-      </c>
-      <c r="F148" t="s">
-        <v>250</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7359,10 +7311,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>252</v>
+      </c>
+      <c r="F149" t="s">
         <v>253</v>
-      </c>
-      <c r="F149" t="s">
-        <v>254</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7388,10 +7340,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>260</v>
+      </c>
+      <c r="F150" t="s">
         <v>261</v>
-      </c>
-      <c r="F150" t="s">
-        <v>262</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7417,10 +7369,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>244</v>
+      </c>
+      <c r="F151" t="s">
         <v>245</v>
-      </c>
-      <c r="F151" t="s">
-        <v>246</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7446,10 +7398,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>256</v>
+      </c>
+      <c r="F152" t="s">
         <v>257</v>
-      </c>
-      <c r="F152" t="s">
-        <v>258</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7475,10 +7427,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>246</v>
+      </c>
+      <c r="F153" t="s">
         <v>247</v>
-      </c>
-      <c r="F153" t="s">
-        <v>248</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7504,10 +7456,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>250</v>
+      </c>
+      <c r="F154" t="s">
         <v>251</v>
-      </c>
-      <c r="F154" t="s">
-        <v>252</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7533,10 +7485,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>258</v>
+      </c>
+      <c r="F155" t="s">
         <v>259</v>
-      </c>
-      <c r="F155" t="s">
-        <v>260</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7562,10 +7514,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>276</v>
+      </c>
+      <c r="F156" t="s">
         <v>277</v>
-      </c>
-      <c r="F156" t="s">
-        <v>278</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7591,10 +7543,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>278</v>
+      </c>
+      <c r="F157" t="s">
         <v>279</v>
-      </c>
-      <c r="F157" t="s">
-        <v>280</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7620,10 +7572,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>280</v>
+      </c>
+      <c r="F158" t="s">
         <v>281</v>
-      </c>
-      <c r="F158" t="s">
-        <v>282</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7649,10 +7601,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>282</v>
+      </c>
+      <c r="F159" t="s">
         <v>283</v>
-      </c>
-      <c r="F159" t="s">
-        <v>284</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7678,10 +7630,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>284</v>
+      </c>
+      <c r="F160" t="s">
         <v>285</v>
-      </c>
-      <c r="F160" t="s">
-        <v>286</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7707,10 +7659,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F161" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7736,10 +7688,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F162" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7765,10 +7717,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F163" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G163" t="n">
         <v>47</v>
@@ -7794,10 +7746,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F164" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7823,10 +7775,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F165" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7852,10 +7804,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F166" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7881,10 +7833,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F167" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7910,10 +7862,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F168" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7939,10 +7891,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F169" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7968,10 +7920,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F170" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G170" t="n">
         <v>5</v>
@@ -7997,10 +7949,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8026,10 +7978,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F172" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8055,10 +8007,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F173" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8084,10 +8036,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F174" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8113,10 +8065,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -8142,10 +8094,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8171,10 +8123,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F177" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8200,10 +8152,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F178" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G178" t="n">
         <v>5</v>
@@ -8229,10 +8181,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F179" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8258,10 +8210,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F180" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8287,10 +8239,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F181" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8316,10 +8268,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F182" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8345,10 +8297,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F183" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8374,10 +8326,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F184" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8403,10 +8355,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F185" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8432,10 +8384,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F186" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8461,10 +8413,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F187" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8490,10 +8442,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F188" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8519,10 +8471,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F189" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8548,10 +8500,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F190" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8577,10 +8529,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F191" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -8606,10 +8558,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F192" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8635,10 +8587,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F193" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8664,10 +8616,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F194" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8693,10 +8645,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>248</v>
+      </c>
+      <c r="F195" t="s">
         <v>249</v>
-      </c>
-      <c r="F195" t="s">
-        <v>250</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8722,10 +8674,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F196" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8751,10 +8703,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F197" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8780,10 +8732,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F198" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -8809,10 +8761,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F199" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8838,10 +8790,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F200" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8867,10 +8819,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F201" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8896,10 +8848,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F202" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8925,10 +8877,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F203" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8954,10 +8906,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F204" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8983,10 +8935,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F205" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9012,10 +8964,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F206" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9041,10 +8993,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F207" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -9070,10 +9022,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F208" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -9099,10 +9051,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F209" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9128,10 +9080,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F210" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9157,10 +9109,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F211" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -9186,10 +9138,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F212" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9215,10 +9167,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F213" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -9244,10 +9196,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F214" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9273,10 +9225,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F215" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9302,10 +9254,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F216" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9331,10 +9283,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F217" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9360,10 +9312,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F218" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9389,10 +9341,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F219" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9418,10 +9370,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F220" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -9447,10 +9399,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F221" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -9476,10 +9428,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F222" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -9505,10 +9457,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F223" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9534,10 +9486,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F224" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -9563,10 +9515,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F225" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9592,10 +9544,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F226" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -9621,10 +9573,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F227" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9650,10 +9602,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F228" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9679,10 +9631,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F229" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9708,10 +9660,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F230" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -9737,10 +9689,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F231" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G231" t="n">
         <v>4</v>
@@ -9766,10 +9718,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F232" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G232" t="n">
         <v>4</v>
@@ -9795,10 +9747,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F233" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9824,10 +9776,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F234" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9853,10 +9805,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F235" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G235" t="n">
         <v>9</v>
@@ -9882,10 +9834,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F236" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9911,10 +9863,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F237" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G237" t="n">
         <v>4</v>
@@ -9940,10 +9892,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F238" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -9969,10 +9921,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F239" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G239" t="n">
         <v>4</v>
@@ -9998,10 +9950,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F240" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -10027,10 +9979,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F241" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G241" t="n">
         <v>4</v>
@@ -10056,10 +10008,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F242" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G242" t="n">
         <v>8</v>
@@ -10085,10 +10037,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F243" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G243" t="n">
         <v>4</v>
@@ -10114,10 +10066,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10143,10 +10095,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G245" t="n">
         <v>6</v>
@@ -10172,10 +10124,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G246" t="n">
         <v>4</v>
@@ -10201,10 +10153,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10230,10 +10182,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10259,10 +10211,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10288,10 +10240,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G250" t="n">
         <v>10</v>
@@ -10317,10 +10269,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G251" t="n">
         <v>6</v>
@@ -10346,10 +10298,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F252" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10375,10 +10327,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F253" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G253" t="n">
         <v>6</v>
@@ -10404,10 +10356,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G254" t="n">
         <v>6</v>
@@ -10433,10 +10385,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F255" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G255" t="n">
         <v>4</v>
@@ -10462,10 +10414,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G256" t="n">
         <v>3</v>
@@ -10491,10 +10443,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G257" t="n">
         <v>4</v>
@@ -10520,10 +10472,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -10549,10 +10501,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10578,10 +10530,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10607,10 +10559,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10636,10 +10588,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10665,10 +10617,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10694,10 +10646,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10723,10 +10675,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10752,10 +10704,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10781,10 +10733,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10810,10 +10762,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -10839,10 +10791,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10868,10 +10820,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10897,10 +10849,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10926,10 +10878,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>152</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -10955,10 +10907,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10984,10 +10936,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11013,10 +10965,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11042,10 +10994,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11071,10 +11023,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>172</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -11100,10 +11052,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F278" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11129,10 +11081,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F279" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11158,10 +11110,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F280" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G280" t="n">
         <v>6</v>
@@ -11187,10 +11139,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -11216,10 +11168,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>166</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11245,10 +11197,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>403</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11274,10 +11226,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F284" t="s">
-        <v>528</v>
+        <v>427</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11303,10 +11255,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F285" t="s">
-        <v>530</v>
+        <v>397</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11332,10 +11284,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F286" t="s">
-        <v>532</v>
+        <v>345</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11361,10 +11313,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F287" t="s">
-        <v>534</v>
+        <v>429</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11390,10 +11342,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F288" t="s">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="G288" t="n">
         <v>42</v>
@@ -11419,10 +11371,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F289" t="s">
-        <v>538</v>
+        <v>407</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11448,10 +11400,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F290" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11477,10 +11429,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="F291" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11506,10 +11458,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F292" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11535,10 +11487,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F293" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11564,10 +11516,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F294" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -11593,10 +11545,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="F295" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11622,10 +11574,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F296" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11651,10 +11603,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F297" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11680,10 +11632,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F298" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11709,10 +11661,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F299" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11738,10 +11690,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F300" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11767,10 +11719,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F301" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11796,10 +11748,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="F302" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11825,10 +11777,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="F303" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11854,10 +11806,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="F304" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -11883,10 +11835,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F305" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11912,10 +11864,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="F306" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11941,10 +11893,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="F307" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11970,10 +11922,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="F308" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11999,10 +11951,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F309" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12028,10 +11980,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="F310" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12057,10 +12009,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="F311" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12086,10 +12038,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="F312" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12115,10 +12067,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="F313" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12144,10 +12096,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="F314" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12173,13 +12125,13 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="F315" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="G315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12202,10 +12154,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F316" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12231,10 +12183,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F317" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12260,13 +12212,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="F318" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="G318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12289,10 +12241,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F319" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12318,10 +12270,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F320" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12347,10 +12299,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F321" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12376,10 +12328,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F322" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12405,10 +12357,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F323" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12434,10 +12386,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F324" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12492,13 +12444,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F326" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="G326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12521,10 +12473,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F327" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12550,10 +12502,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F328" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12579,10 +12531,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F329" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12608,10 +12560,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F330" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12637,10 +12589,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="F331" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12666,10 +12618,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F332" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12695,13 +12647,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F333" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12724,10 +12676,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="F334" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12753,10 +12705,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F335" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12782,10 +12734,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F336" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12811,10 +12763,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F337" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12898,10 +12850,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F340" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12927,10 +12879,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="F341" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12956,10 +12908,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="F342" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12985,10 +12937,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="F343" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="G343" t="n">
         <v>3</v>
@@ -13014,10 +12966,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F344" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G344" t="n">
         <v>4</v>
@@ -13043,10 +12995,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F345" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="G345" t="n">
         <v>5</v>
@@ -13072,10 +13024,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="F346" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13101,10 +13053,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="F347" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13130,10 +13082,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="F348" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -13159,10 +13111,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="F349" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13188,10 +13140,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="F350" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13217,10 +13169,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F351" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13246,10 +13198,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F352" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13275,10 +13227,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F353" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13362,10 +13314,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F356" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13391,10 +13343,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F357" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13420,10 +13372,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="F358" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13449,10 +13401,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F359" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13478,10 +13430,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F360" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13507,10 +13459,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F361" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13536,10 +13488,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F362" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13565,10 +13517,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F363" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13594,10 +13546,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="F364" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13623,10 +13575,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="F365" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13652,10 +13604,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="F366" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13681,10 +13633,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F367" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13710,10 +13662,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F368" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13739,10 +13691,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F369" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13768,10 +13720,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="F370" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13797,10 +13749,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F371" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13826,10 +13778,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="F372" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13855,10 +13807,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="F373" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13884,10 +13836,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F374" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13913,10 +13865,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="F375" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="G375" t="n">
         <v>4</v>
@@ -13942,10 +13894,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="F376" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13971,10 +13923,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F377" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -14000,10 +13952,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F378" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14029,10 +13981,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F379" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14058,10 +14010,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F380" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14087,10 +14039,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="F381" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14116,10 +14068,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F382" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14145,10 +14097,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F383" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14174,10 +14126,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F384" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14203,10 +14155,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F385" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G385" t="n">
         <v>3</v>
@@ -14232,10 +14184,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F386" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G386" t="n">
         <v>3</v>
@@ -14261,10 +14213,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F387" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14290,10 +14242,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F388" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -14319,10 +14271,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F389" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14348,10 +14300,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F390" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14377,10 +14329,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F391" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14406,10 +14358,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F392" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -14435,10 +14387,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F393" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14464,10 +14416,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F394" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14493,10 +14445,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F395" t="s">
-        <v>690</v>
+        <v>613</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14522,10 +14474,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F396" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14551,10 +14503,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="F397" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14580,10 +14532,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F398" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14609,10 +14561,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F399" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14638,10 +14590,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F400" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14667,10 +14619,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="F401" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14696,10 +14648,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F402" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14725,10 +14677,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F403" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -14754,10 +14706,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="F404" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14783,10 +14735,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="F405" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14812,10 +14764,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="F406" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -14841,10 +14793,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F407" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14870,10 +14822,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="F408" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -14899,10 +14851,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F409" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14928,10 +14880,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="F410" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="G410" t="n">
         <v>6</v>
@@ -14957,10 +14909,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F411" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -14986,10 +14938,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F412" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15015,10 +14967,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="F413" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15044,10 +14996,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="F414" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15073,10 +15025,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F415" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15102,10 +15054,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="F416" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15131,10 +15083,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F417" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15160,10 +15112,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="F418" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15189,10 +15141,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="F419" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15218,10 +15170,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F420" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15247,10 +15199,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="F421" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15276,10 +15228,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F422" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15305,10 +15257,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F423" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -15334,10 +15286,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="F424" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15363,10 +15315,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F425" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15392,10 +15344,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="F426" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15421,10 +15373,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F427" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15450,10 +15402,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="F428" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15479,10 +15431,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="F429" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15508,10 +15460,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="F430" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15537,10 +15489,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="F431" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15566,10 +15518,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F432" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15595,10 +15547,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="F433" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15624,10 +15576,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="F434" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15653,10 +15605,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="F435" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15682,10 +15634,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="F436" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15711,10 +15663,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="F437" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15740,10 +15692,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="F438" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15769,10 +15721,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="F439" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15798,10 +15750,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="F440" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15827,10 +15779,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="F441" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15856,10 +15808,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F442" t="s">
-        <v>772</v>
+        <v>409</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15885,10 +15837,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="F443" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15914,10 +15866,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="F444" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15943,10 +15895,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="F445" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15972,10 +15924,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="F446" t="s">
-        <v>780</v>
+        <v>730</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -16001,10 +15953,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F447" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16030,10 +15982,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F448" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16059,10 +16011,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F449" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16088,10 +16040,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F450" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16117,10 +16069,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="F451" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16146,10 +16098,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="F452" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16175,10 +16127,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="F453" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16204,10 +16156,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="F454" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16233,10 +16185,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="F455" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16262,10 +16214,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="F456" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16291,10 +16243,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="F457" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16320,10 +16272,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="F458" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16349,10 +16301,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="F459" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16378,10 +16330,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="F460" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16407,10 +16359,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F461" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16436,10 +16388,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="F462" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16465,10 +16417,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="F463" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16494,10 +16446,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="F464" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16523,10 +16475,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="F465" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16552,10 +16504,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="F466" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16581,10 +16533,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="F467" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16610,10 +16562,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F468" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16639,10 +16591,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="F469" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16668,10 +16620,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="F470" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16697,10 +16649,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="F471" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16726,10 +16678,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="F472" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16755,10 +16707,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="F473" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16784,10 +16736,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="F474" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16813,10 +16765,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F475" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16842,10 +16794,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F476" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16871,10 +16823,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F477" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -16900,10 +16852,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="F478" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -16929,10 +16881,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="F479" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -16958,10 +16910,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="F480" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -16987,10 +16939,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="F481" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17016,10 +16968,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="F482" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17045,10 +16997,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F483" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17074,10 +17026,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="F484" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17103,10 +17055,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F485" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G485" t="n">
         <v>5</v>
@@ -17132,10 +17084,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="F486" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17161,10 +17113,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="F487" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17190,10 +17142,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="F488" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17219,10 +17171,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F489" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17248,10 +17200,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F490" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17277,10 +17229,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="F491" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17306,10 +17258,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F492" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17335,10 +17287,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F493" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17364,10 +17316,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="F494" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -17393,10 +17345,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F495" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17422,10 +17374,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F496" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17451,10 +17403,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F497" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -17480,10 +17432,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F498" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17509,10 +17461,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="F499" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17538,10 +17490,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="F500" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17567,10 +17519,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="F501" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17596,10 +17548,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="F502" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17625,10 +17577,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F503" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -17654,10 +17606,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="F504" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G504" t="n">
         <v>3</v>
@@ -17683,10 +17635,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="F505" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -17712,10 +17664,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="F506" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -17741,10 +17693,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="F507" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -17770,10 +17722,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="F508" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -17799,10 +17751,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="F509" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>

--- a/xlsx/叙利亚_intext.xlsx
+++ b/xlsx/叙利亚_intext.xlsx
@@ -29,7 +29,7 @@
     <t>叙利亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_叙利亚</t>
+    <t>体育运动_体育运动_古埃及_叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
